--- a/satd_issue_dataset_Ruby_tsuji.xlsx
+++ b/satd_issue_dataset_Ruby_tsuji.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2EA3848A-8C39-1A49-B9A9-37F8AE993110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F109D808-169E-B745-8359-244E8B9710BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300"/>
+    <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Ruby_tsuji" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="332">
   <si>
     <t>Issue</t>
   </si>
@@ -740,13 +740,511 @@
   <si>
     <t>[Content]
 [Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト gem を rpm にビルドしないでください
+[Class]ファイルの整理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI DHTMLXTREE をビルド/管理するコードを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロトタイプ.jsを削除
+[Class]不要なファイルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コード内で使ってるライブラリレベルならDesign？</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ツカッテ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MiqPowerShell は rexml で nokogiri を使用する必要があります
+[Class]パフォーマンスの向上</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]上流のクリーンアップを改善する必要がありクラフトが取り残されています
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ProductUpdate.upload、.validate_bundle、.process_bundle などを削除しますか?
+[Class]不要なファイルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: カタログおよびプロビジョニング リクエスト領域の一部のビューをクリーンアップ
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AR モデルからのフラッシュ メッセージを表示するヘルパー メソッドを作成する (PR #468 フォローアップ)
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]残りのアセットを public から app/assets に移動して、asset_pipeline を十分に活用します
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Ziya は Rails コードをコピー/変更しました-これは Rails 4 で動作しますか?
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アップグレードまたはprototype_legacy_helperを置き換えます
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い Rails 2 スタイルのプラグイン resource_feeder をアップグレードまたは置き換える
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い Rails 2 スタイルのプラグイン simile_timeline をアップグレードまたは置き換える
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ruby 2.0+ で心理パッチを検証する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い ruby​​ 1.8 を削除 Exception#&lt;&lt;、#concat、#+ のサポート
+[Class]不要なツールの削除</t>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]actionwebservice/soap4r を削除または置換します
+[Class]ツールの削除，置換</t>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">チカン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]memoist またはその他のものを優先して、メモ化用の activesupport のパッチを削除します
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ManageIQのruportの使用の削除，同じところが開発</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シヨウノサクジョ </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レポートを置き換えるか、サポートされているアップストリーム バージョンを使用してください
+[Class]不要なツールの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]db logic と rails 4 の自動再接続を検証/アップストリーム/抽出
+[Class]コードの検証</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rails 4 に対するリージョン サポート(bigint id)の検証/アップストリーム/抽出
+[Class]コードの検証</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unkown</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rails 4 に対する残りの Rails パッチの検証/抽出/アップストリーム
+[Class]コードの検証</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>検証，とりあえずTestsにしておく</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンショウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]miqnet.sh を削除
+[Class]不要なファイルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アプライアンスで SCL ruby​​ を使用しながらバンドラーをアップグレードするには、毎回少なくとも 3 つのパッケージが必要です
+[Class]ツールのアップグレード，パッケージの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rails 4 に備えて強力なパラメーターを使用する 
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのプロセスで UI 関連の gem が必要になり、メモリを消費する
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サーバー プロセスで qpid_messaging を要求すると、未使用の可能性があるメモリが 22 MB 消費される
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EmsRefresh モジュールは、(Host/VmOrTemplate を介して) ロードするだけで 17 MB のメモリを消費します
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]なぜ GC.disable を使用するのですか?
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BlackboxMixin record_blackbox_event を削除しますか?
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ActiveRecord で "truncate" を使用していますか?
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]心霊関連のパッチを確認する: ArYAML ダンプ/ロード インスタンス変数
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シンボルモンキーパッチ
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]遅いテスト: miq_ae_dialog_spec: "適切にダイアログをインスタンス化する" は数千行をインスタンス化します
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]遅いテスト: MiqUserRole: MiqProductFeature.seed を使用して数千行をインスタンス化します
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]遅いテスト: ApplicationController#button_set_form_vars、buttons_spec.rb:91 は travis で 10 秒以上かかります
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]win32/peheader の Fixnum と Bignum のストレイ モンキー パッチ
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI - グラフィカルな概要画面を削除
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハッシュ モンキー パッチを検証/クリーンアップします
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; jquery - クラス操作
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; jquery - 関数呼び出しの表示/非表示
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; jquery - 要素のプロパティ操作
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; jquery - css スタイルの操作
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UIに関係するコードのライブラリを置き換えてる？</t>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">オキカエテル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アップストリーム コミュニティ ビルドで qpid_messaging をどうするか?
+[Class]機能の改善</t>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: ビューを HAML に変換する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UIに関わってるが見た目の変更ではなく実装を変更してるだけっぽい</t>
+    <rPh sb="2" eb="3">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">カカワッテルガ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ミタメノヘンコウデハナク </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: AJAX を使用するように sysprep 応答ファイルのアップロードを変更 
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: 従来の画面の外側の DHTMLX レイアウトをレスポンシブ CSS に置き換える
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: Explorer 画面の外側の DHTMLX レイアウトをレスポンシブ CSS に置き換える
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: エクスプローラー画面の内部 DHTMLX レイアウトをレスポンシブ CSS に置き換えます
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: AngularJS を使用してリポジトリ エディターを書き直す
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: AngularJS を使用して VM 所有権エディターを書き直す
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]より多くの DHTMLXTREE コードの残り
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; jquery - 呼び出しを .value に置き換えます
+[Class]関数の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; jquery - 呼び出しをchecked、enable、disableに置き換えます
+[Class]関数の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; jquery - ajax 呼び出しを置き換える
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]セッション内のデータが多すぎる
+[Class]不要なデータの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; jquery - 要素オブザーバーを置き換える
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: AngularJS を使用してホスト エディターを書き直す
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: コピーしたライブラリの代わりに Angular Rails gem を使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログを収集するとき、gz 圧縮ログのすべての行を少なくとも 2 回読み取ります
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]I18N: en.yml から削除される孤立したフラッシュ メッセージ
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: Angular アクション エディター
+[Class]コードの改善？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; jquery - 要素参照 $('xx') を $j('#xxx') に置き換えます
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: プロトタイプ -&gt; プロジェクトからプロトタイプを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]listnav の Patternfly/Bootstrap への変換
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]main.css のいくつかの混乱が patternfly のものとマージされました
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gem からブートストラップを使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]patternfly を含める方法を理解する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Patternfly/Bootstrap スタイリングのクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RBAC チェックの強化
+[Class]セキュリティの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RBAC：アクセス制限に関するセキュリティ手法</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シュホウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]listnav の Patternfly/Bootstrap 2 への変換
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての JavaScript アセットの名前を変更します cfme_ ---&gt; manageiq_
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]残りの CFME 参照
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SSL 証明書の検証のためのプロバイダー CA のインポート
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]残りの dhtmlxtree selectItem 呼び出しを dynatree 固有の呼び出しに変換する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スケジュールされたレポートへのリンクを電子メールで送信するために使用されていたコードの削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の jQuery 関数を削除する
+[Class]非推奨の関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Style1 テーブルを Patternfly に変換
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]window_sizes リクエストを取り除く
+[Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -1340,7 +1838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,6 +1847,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1704,22 +2205,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44" style="3" customWidth="1"/>
     <col min="6" max="6" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +2230,7 @@
       <c r="C1" t="s">
         <v>235</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>236</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1743,8 +2244,11 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>240</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -1754,8 +2258,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -1765,8 +2272,14 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -1776,8 +2289,11 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -1787,52 +2303,67 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>248</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="42">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="63">
       <c r="A7">
         <v>475</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>240</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63">
       <c r="A8">
         <v>478</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63">
       <c r="A9">
         <v>498</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="63">
       <c r="A10">
         <v>502</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>240</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -1842,8 +2373,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -1853,30 +2387,39 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="63">
       <c r="A13">
         <v>533</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="63">
       <c r="A14">
         <v>534</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -1886,8 +2429,11 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -1897,8 +2443,11 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>243</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -1908,41 +2457,65 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>243</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="42">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="63">
       <c r="A18">
         <v>538</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>240</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63">
       <c r="A19">
         <v>539</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="42">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="63">
       <c r="A20">
         <v>540</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -1952,8 +2525,11 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>259</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -1963,8 +2539,11 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>259</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -1974,19 +2553,25 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="42">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="63">
       <c r="A24">
         <v>581</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>243</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -1996,8 +2581,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>243</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -2007,30 +2595,39 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="42">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="63">
       <c r="A27">
         <v>593</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="42">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="63">
       <c r="A28">
         <v>594</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -2040,8 +2637,11 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -2051,8 +2651,11 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -2062,8 +2665,11 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>240</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -2073,8 +2679,11 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="s">
+        <v>240</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -2084,41 +2693,53 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>240</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="42">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="63">
       <c r="A34">
         <v>760</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" t="s">
+        <v>259</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="42">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="63">
       <c r="A35">
         <v>761</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>259</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="42">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="63">
       <c r="A36">
         <v>762</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -2128,8 +2749,11 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" t="s">
+        <v>240</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -2139,8 +2763,11 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -2150,8 +2777,11 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
+      <c r="C39" t="s">
+        <v>240</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -2161,8 +2791,11 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>240</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -2172,8 +2805,11 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
+      <c r="C41" t="s">
+        <v>240</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -2183,8 +2819,11 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" t="s">
+        <v>240</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -2194,8 +2833,11 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -2205,8 +2847,11 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
+      <c r="C44" t="s">
+        <v>240</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -2216,8 +2861,11 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
+      <c r="C45" t="s">
+        <v>240</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -2227,8 +2875,11 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
+      <c r="C46" t="s">
+        <v>240</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -2238,8 +2889,11 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -2249,8 +2903,11 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
+      <c r="C48" t="s">
+        <v>240</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -2260,8 +2917,11 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
+      <c r="C49" t="s">
+        <v>240</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2271,8 +2931,11 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
+      <c r="C50" t="s">
+        <v>240</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -2282,8 +2945,11 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>240</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2293,8 +2959,11 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>240</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -2304,8 +2973,11 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>240</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2315,8 +2987,11 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>240</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -2326,8 +3001,11 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>240</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -2337,8 +3015,11 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>240</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -2348,8 +3029,11 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -2359,8 +3043,11 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>240</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -2370,8 +3057,11 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>240</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -2381,8 +3071,11 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>240</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -2392,8 +3085,14 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -2403,8 +3102,11 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>240</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -2414,8 +3116,11 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>240</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -2425,8 +3130,11 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>240</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -2436,8 +3144,11 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" t="s">
+        <v>240</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -2447,8 +3158,14 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
+      <c r="C66" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -2458,41 +3175,53 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
+      <c r="C67" t="s">
+        <v>240</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="42">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="63">
       <c r="A68">
         <v>1055</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
+      <c r="C68" t="s">
+        <v>251</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="42">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="63">
       <c r="A69">
         <v>1056</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
+      <c r="C69" t="s">
+        <v>251</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="42">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="63">
       <c r="A70">
         <v>1057</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -2502,8 +3231,11 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>240</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -2513,8 +3245,11 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>240</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -2524,8 +3259,11 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>240</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -2535,19 +3273,25 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>240</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="42">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="63">
       <c r="A75">
         <v>1148</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>240</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -2557,8 +3301,11 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>240</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -2568,8 +3315,11 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>240</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -2579,8 +3329,11 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>240</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -2590,8 +3343,11 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
+      <c r="C79" t="s">
+        <v>240</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -2601,19 +3357,25 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>240</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="42">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="63">
       <c r="A81">
         <v>1279</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
+      <c r="C81" t="s">
+        <v>240</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -2623,8 +3385,11 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
+      <c r="C82" t="s">
+        <v>240</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -2634,8 +3399,14 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83" t="s">
+        <v>312</v>
+      </c>
+      <c r="D83" t="s">
+        <v>240</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -2645,8 +3416,11 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
+      <c r="C84" t="s">
+        <v>240</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -2656,8 +3430,11 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
+      <c r="C85" t="s">
+        <v>240</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -2667,8 +3444,11 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
+      <c r="C86" t="s">
+        <v>240</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -2678,8 +3458,11 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
+      <c r="C87" t="s">
+        <v>240</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -2689,8 +3472,11 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
+      <c r="C88" t="s">
+        <v>240</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -2700,8 +3486,11 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
+      <c r="C89" t="s">
+        <v>240</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -2711,8 +3500,11 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>240</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -2722,8 +3514,14 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
+      <c r="C91" t="s">
+        <v>321</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -2733,8 +3531,11 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
+      <c r="C92" t="s">
+        <v>240</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -2744,8 +3545,11 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>240</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -2755,8 +3559,11 @@
       <c r="B94" t="s">
         <v>94</v>
       </c>
+      <c r="C94" t="s">
+        <v>240</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -2766,30 +3573,39 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
+      <c r="C95" t="s">
+        <v>240</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="42">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="63">
       <c r="A96">
         <v>2714</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
+      <c r="C96" t="s">
+        <v>240</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="42">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="63">
       <c r="A97">
         <v>2747</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="C97" t="s">
+        <v>240</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -2799,8 +3615,11 @@
       <c r="B98" t="s">
         <v>98</v>
       </c>
+      <c r="C98" t="s">
+        <v>243</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -2810,8 +3629,11 @@
       <c r="B99" t="s">
         <v>99</v>
       </c>
+      <c r="C99" t="s">
+        <v>240</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -2821,8 +3643,11 @@
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="C100" t="s">
+        <v>240</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">

--- a/satd_issue_dataset_Ruby_tsuji.xlsx
+++ b/satd_issue_dataset_Ruby_tsuji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F109D808-169E-B745-8359-244E8B9710BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CBDE18-10DE-634F-92B8-4E08E2508475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="-21100" windowWidth="28800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Ruby_tsuji" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="384">
   <si>
     <t>Issue</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>https://github.com/ManageIQ/manageiq/issues/8875</t>
-  </si>
-  <si>
-    <t>https://github.com/ManageIQ/manageiq/issues/8923</t>
   </si>
   <si>
     <t>https://github.com/ManageIQ/manageiq/issues/9195</t>
@@ -1237,6 +1234,292 @@
   </si>
   <si>
     <t>[Content]window_sizes リクエストを取り除く
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI: VM およびテンプレート ツリーの仕様テストの追加/修正
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gems/pending/fs でファイル名をスネークケースに変更
+[Class]ファイル名のコードスタイルの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Code Style</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]session[:tree_selection] は使用されていますか?
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]必要に応じて新しいブートストラップ日付ピッカーのスタイルを変更します
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dhtmlx レイアウトの置き換え
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]git sha ではなく、rest-client を v2.0.0.rc1 以降にアップグレードします
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードウェア CPU 値の正しい名前
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ツールバーのアイコンに Font Awesome アイコンを使用するためのサポートがありません
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ツールバー: ツールバーのレンダリングをまっすぐにします
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アップストリームで利用可能な Red Hat Updates タブ
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なコード エディターの高さ制限を削除する
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不足しているツールバー ボタンのテストを実装する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Listnavs: それぞれのテストを行います
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]logical_cpus に関する Travis の非推奨警告を修正 
+[Class]非推奨警告の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]特権に関する Travis の非推奨警告を修正
+[Class]非推奨警告の修正</t>
+    <rPh sb="40" eb="45">
+      <t xml:space="preserve">ヒスイショウケイコク </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]移行スタブ (優れた移行 gem) を使用しない移行と、その他の移行の問題を一覧表示する
+[Class]SQLの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]alias_method_chain は非推奨です
+[Class]非推奨への対応</t>
+    <rPh sb="42" eb="45">
+      <t xml:space="preserve">ヒスイショウヘノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ActiveRecord::Base.find_by_*_and_* は推奨されません
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ナビゲーション、最後のアクションなどのメニュー セクションのクリーンアップ処理
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GUID 列をパレしますか? 
+[Class]DBの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]使用状況フォームの古い選択
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Docker: クローン パスを /manageiq から /var/www/miq/vmdb に切り替えます
+[Class]パスの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]require_snapshot_for_scan をリファクタリングしますか? およびパスメソッド
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロバイダーのデフォルトのビュー設定が 2 回定義されることがある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]汎用トポロジーを使用するには、ミドルウェア・トポロジーを書き直す必要があります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Metrics Auth コードにはクリーンアップとテストが必要です
+[Class]コードの改善，テストの追加</t>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Haml パーシャルのフィールドセットを取り除く
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]キックスタートと Dockerfile の間の RPM パッケージの不一致
+[Class]Dockerfileの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI から実用的な INFO ログを評価して削減する
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロバイダから実用的な情報ログを評価して削減する
+[Class]ログの評価，削減</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ミドルウェア プロバイダーは、他のプロバイダーと同様に安静なルートを使用する必要があります
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/ManageIQ/manageiq/issues/8923</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]重複排除デフ textual_authentication
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タイムラインでの DOM ID の重複
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]残りのクワディコン パーシャルを変換する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Service virtual_has_one :picture を実際の has_one に変換する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]チャージバック サブクラスのクエリを統一する
+[Class]クエリの改善</t>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]miq_policy/_policy_folders.html.haml は偽物です
+[Class]UIの改善</t>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Benchmark.realtime_block の確認は、MiqQueue TimeoutError によって中断される可能性があります
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]toolbar_builder から最後を削除しますeval
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EmsCommon: Angular への不完全な変換
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content][UI]: 設定の「Red Hat Updates」タブを削除
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]flash_msg を部分的にレンダリングするときに div_num を使用しないようにコードをリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]render_flash(*) を使用するようにコードをリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MiqReports で仮想カスタム列をロードするための古いメソッドを削除します
+[Class]不要な機能の削除</t>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マッチャーが許可されている場所で VimHash を使用すると RSpec が混乱する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Bootstrap ファイルスタイルを使用しない「Register Iconic Nodes」画面
+[Class]UIの改善</t>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PR #11529 からのフィードバックに対処する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]#11259 OpenStack クラウド テナントの作成/更新/削除のフォローアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ems_*/show を削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいコントローラーで「汎用」ミックスインを使用する
 [Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -2208,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2228,13 +2511,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42">
@@ -2245,10 +2528,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -2259,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -2273,13 +2556,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -2290,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -2304,10 +2587,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="63">
@@ -2318,10 +2601,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63">
@@ -2332,10 +2615,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63">
@@ -2346,10 +2629,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="63">
@@ -2360,10 +2643,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -2374,10 +2657,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -2388,10 +2671,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="63">
@@ -2402,10 +2685,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="63">
@@ -2416,10 +2699,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -2430,10 +2713,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -2444,10 +2727,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -2458,10 +2741,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="63">
@@ -2472,10 +2755,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="63">
@@ -2486,16 +2769,16 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="63">
@@ -2506,16 +2789,16 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -2526,10 +2809,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -2540,10 +2823,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -2554,10 +2837,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="63">
@@ -2568,10 +2851,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -2582,10 +2865,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -2596,10 +2879,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="63">
@@ -2610,10 +2893,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="63">
@@ -2624,10 +2907,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -2638,10 +2921,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -2652,10 +2935,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -2666,10 +2949,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -2680,10 +2963,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -2694,10 +2977,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="63">
@@ -2708,10 +2991,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="63">
@@ -2722,10 +3005,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="63">
@@ -2736,10 +3019,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -2750,10 +3033,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -2764,10 +3047,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -2778,10 +3061,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -2792,10 +3075,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -2806,10 +3089,10 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -2820,10 +3103,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -2834,10 +3117,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -2848,10 +3131,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -2862,10 +3145,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -2876,10 +3159,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -2890,10 +3173,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -2904,10 +3187,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -2918,10 +3201,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2932,10 +3215,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -2946,10 +3229,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2960,10 +3243,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -2974,10 +3257,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2988,10 +3271,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -3002,10 +3285,10 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -3016,10 +3299,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -3030,10 +3313,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -3044,10 +3327,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -3058,10 +3341,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -3072,10 +3355,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -3086,13 +3369,13 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -3103,10 +3386,10 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -3117,10 +3400,10 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -3131,10 +3414,10 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -3145,10 +3428,10 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -3159,13 +3442,13 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -3176,10 +3459,10 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="63">
@@ -3190,10 +3473,10 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="63">
@@ -3204,10 +3487,10 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="63">
@@ -3218,10 +3501,10 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -3232,10 +3515,10 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -3246,10 +3529,10 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -3260,10 +3543,10 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -3274,10 +3557,10 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="63">
@@ -3288,10 +3571,10 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -3302,10 +3585,10 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -3316,10 +3599,10 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -3330,10 +3613,10 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -3344,10 +3627,10 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -3358,10 +3641,10 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="63">
@@ -3372,10 +3655,10 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -3386,10 +3669,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -3400,13 +3683,13 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -3417,10 +3700,10 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -3431,10 +3714,10 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -3445,10 +3728,10 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -3459,10 +3742,10 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -3473,10 +3756,10 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -3487,10 +3770,10 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -3501,10 +3784,10 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -3515,13 +3798,13 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
+        <v>320</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -3532,10 +3815,10 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -3546,10 +3829,10 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -3560,10 +3843,10 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -3574,10 +3857,10 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="63">
@@ -3588,10 +3871,10 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="63">
@@ -3602,10 +3885,10 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -3616,10 +3899,10 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -3630,10 +3913,10 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -3644,10 +3927,10 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
@@ -3657,8 +3940,11 @@
       <c r="B101" t="s">
         <v>101</v>
       </c>
+      <c r="C101" t="s">
+        <v>258</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -3668,8 +3954,11 @@
       <c r="B102" t="s">
         <v>102</v>
       </c>
+      <c r="C102" t="s">
+        <v>333</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -3679,8 +3968,11 @@
       <c r="B103" t="s">
         <v>103</v>
       </c>
+      <c r="C103" t="s">
+        <v>239</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -3690,8 +3982,11 @@
       <c r="B104" t="s">
         <v>104</v>
       </c>
+      <c r="C104" t="s">
+        <v>239</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -3701,8 +3996,11 @@
       <c r="B105" t="s">
         <v>105</v>
       </c>
+      <c r="C105" t="s">
+        <v>250</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -3712,8 +4010,11 @@
       <c r="B106" t="s">
         <v>106</v>
       </c>
+      <c r="C106" t="s">
+        <v>242</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>238</v>
+        <v>337</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -3723,19 +4024,25 @@
       <c r="B107" t="s">
         <v>107</v>
       </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="42">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="63">
       <c r="A108">
         <v>4798</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
+      <c r="C108" t="s">
+        <v>250</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -3745,8 +4052,11 @@
       <c r="B109" t="s">
         <v>109</v>
       </c>
+      <c r="C109" t="s">
+        <v>250</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -3756,8 +4066,11 @@
       <c r="B110" t="s">
         <v>110</v>
       </c>
+      <c r="C110" t="s">
+        <v>250</v>
+      </c>
       <c r="F110" s="2" t="s">
-        <v>238</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -3767,8 +4080,11 @@
       <c r="B111" t="s">
         <v>111</v>
       </c>
+      <c r="C111" t="s">
+        <v>250</v>
+      </c>
       <c r="F111" s="2" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -3778,8 +4094,11 @@
       <c r="B112" t="s">
         <v>112</v>
       </c>
+      <c r="C112" t="s">
+        <v>258</v>
+      </c>
       <c r="F112" s="2" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -3789,8 +4108,11 @@
       <c r="B113" t="s">
         <v>113</v>
       </c>
+      <c r="C113" t="s">
+        <v>258</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -3800,8 +4122,11 @@
       <c r="B114" t="s">
         <v>114</v>
       </c>
+      <c r="C114" t="s">
+        <v>239</v>
+      </c>
       <c r="F114" s="2" t="s">
-        <v>238</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -3811,19 +4136,28 @@
       <c r="B115" t="s">
         <v>115</v>
       </c>
+      <c r="C115" t="s">
+        <v>239</v>
+      </c>
       <c r="F115" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="42">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="63">
       <c r="A116">
         <v>6739</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
       </c>
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" t="s">
+        <v>348</v>
+      </c>
       <c r="F116" s="2" t="s">
-        <v>238</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -3833,8 +4167,11 @@
       <c r="B117" t="s">
         <v>117</v>
       </c>
+      <c r="C117" t="s">
+        <v>242</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>238</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -3844,19 +4181,25 @@
       <c r="B118" t="s">
         <v>118</v>
       </c>
+      <c r="C118" t="s">
+        <v>242</v>
+      </c>
       <c r="F118" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="42">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="63">
       <c r="A119">
         <v>6889</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
       </c>
+      <c r="C119" t="s">
+        <v>239</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -3866,8 +4209,11 @@
       <c r="B120" t="s">
         <v>120</v>
       </c>
+      <c r="C120" t="s">
+        <v>239</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>238</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -3877,30 +4223,39 @@
       <c r="B121" t="s">
         <v>121</v>
       </c>
+      <c r="C121" t="s">
+        <v>250</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="42">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="63">
       <c r="A122">
         <v>7797</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
+      <c r="C122" t="s">
+        <v>239</v>
+      </c>
       <c r="F122" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="42">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="63">
       <c r="A123">
         <v>7885</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
       </c>
+      <c r="C123" t="s">
+        <v>239</v>
+      </c>
       <c r="F123" s="2" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -3910,19 +4265,25 @@
       <c r="B124" t="s">
         <v>124</v>
       </c>
+      <c r="C124" t="s">
+        <v>239</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="42">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="63">
       <c r="A125">
         <v>8022</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
+      <c r="C125" t="s">
+        <v>239</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -3932,8 +4293,14 @@
       <c r="B126" t="s">
         <v>126</v>
       </c>
+      <c r="C126" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" t="s">
+        <v>258</v>
+      </c>
       <c r="F126" s="2" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -3943,8 +4310,11 @@
       <c r="B127" t="s">
         <v>127</v>
       </c>
+      <c r="C127" t="s">
+        <v>250</v>
+      </c>
       <c r="F127" s="2" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -3954,8 +4324,11 @@
       <c r="B128" t="s">
         <v>128</v>
       </c>
+      <c r="C128" t="s">
+        <v>239</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>238</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -3965,8 +4338,11 @@
       <c r="B129" t="s">
         <v>129</v>
       </c>
+      <c r="C129" t="s">
+        <v>250</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>238</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -3976,19 +4352,31 @@
       <c r="B130" t="s">
         <v>130</v>
       </c>
+      <c r="C130" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" t="s">
+        <v>348</v>
+      </c>
       <c r="F130" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="42">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="63">
       <c r="A131">
         <v>8875</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
       </c>
+      <c r="C131" t="s">
+        <v>266</v>
+      </c>
+      <c r="D131" t="s">
+        <v>239</v>
+      </c>
       <c r="F131" s="2" t="s">
-        <v>238</v>
+        <v>363</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -3996,10 +4384,13 @@
         <v>8923</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>364</v>
+      </c>
+      <c r="C132" t="s">
+        <v>239</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>238</v>
+        <v>365</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -4007,10 +4398,13 @@
         <v>9195</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>239</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>238</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -4018,10 +4412,13 @@
         <v>9214</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>239</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>238</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -4029,10 +4426,13 @@
         <v>9407</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>239</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>238</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -4040,10 +4440,13 @@
         <v>9456</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>239</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>238</v>
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -4051,21 +4454,27 @@
         <v>9483</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>250</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="42">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="63">
       <c r="A138">
         <v>9642</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>258</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>238</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -4073,10 +4482,13 @@
         <v>9711</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>239</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>238</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -4084,10 +4496,13 @@
         <v>10428</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>239</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -4095,21 +4510,27 @@
         <v>10724</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>250</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="42">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="63">
       <c r="A142">
         <v>11238</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>239</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>238</v>
+        <v>375</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -4117,32 +4538,41 @@
         <v>11239</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>239</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="42">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="63">
       <c r="A144">
         <v>11365</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>239</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="63">
       <c r="A145">
         <v>11507</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>258</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -4150,10 +4580,13 @@
         <v>11713</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>250</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>238</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -4161,10 +4594,13 @@
         <v>11716</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>258</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>238</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -4172,10 +4608,13 @@
         <v>11764</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>239</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>238</v>
+        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -4183,10 +4622,13 @@
         <v>11821</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>239</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>238</v>
+        <v>382</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -4194,10 +4636,13 @@
         <v>11979</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>239</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>238</v>
+        <v>383</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -4205,10 +4650,10 @@
         <v>12085</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -4216,10 +4661,10 @@
         <v>12361</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -4227,10 +4672,10 @@
         <v>12868</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -4238,10 +4683,10 @@
         <v>13050</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -4249,10 +4694,10 @@
         <v>13127</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -4260,10 +4705,10 @@
         <v>13215</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -4271,10 +4716,10 @@
         <v>18222</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -4282,10 +4727,10 @@
         <v>18455</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -4293,10 +4738,10 @@
         <v>18680</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -4304,10 +4749,10 @@
         <v>18923</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -4315,10 +4760,10 @@
         <v>19361</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -4326,10 +4771,10 @@
         <v>19390</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -4337,10 +4782,10 @@
         <v>19622</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -4348,10 +4793,10 @@
         <v>19771</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -4359,10 +4804,10 @@
         <v>19888</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -4370,10 +4815,10 @@
         <v>19999</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -4381,10 +4826,10 @@
         <v>20103</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -4392,10 +4837,10 @@
         <v>20752</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -4403,10 +4848,10 @@
         <v>21078</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -4414,10 +4859,10 @@
         <v>21100</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -4425,10 +4870,10 @@
         <v>21179</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -4436,10 +4881,10 @@
         <v>21192</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -4447,10 +4892,10 @@
         <v>21246</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -4458,10 +4903,10 @@
         <v>21378</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -4469,10 +4914,10 @@
         <v>21379</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -4480,10 +4925,10 @@
         <v>21380</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -4491,10 +4936,10 @@
         <v>2983</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -4502,10 +4947,10 @@
         <v>3317</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -4513,10 +4958,10 @@
         <v>3350</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -4524,10 +4969,10 @@
         <v>3351</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -4535,10 +4980,10 @@
         <v>3355</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -4546,10 +4991,10 @@
         <v>3373</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -4557,10 +5002,10 @@
         <v>3380</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -4568,10 +5013,10 @@
         <v>3668</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -4579,10 +5024,10 @@
         <v>3715</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -4590,10 +5035,10 @@
         <v>3777</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -4601,10 +5046,10 @@
         <v>3786</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -4612,10 +5057,10 @@
         <v>3852</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -4623,10 +5068,10 @@
         <v>3966</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -4634,10 +5079,10 @@
         <v>3979</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -4645,10 +5090,10 @@
         <v>4030</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -4656,10 +5101,10 @@
         <v>4054</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -4667,10 +5112,10 @@
         <v>4065</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -4678,10 +5123,10 @@
         <v>4088</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -4689,10 +5134,10 @@
         <v>4090</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -4700,10 +5145,10 @@
         <v>4091</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -4711,10 +5156,10 @@
         <v>4092</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -4722,10 +5167,10 @@
         <v>4093</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -4733,10 +5178,10 @@
         <v>4094</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -4744,10 +5189,10 @@
         <v>4127</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
@@ -4755,10 +5200,10 @@
         <v>4129</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -4766,10 +5211,10 @@
         <v>4134</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -4777,10 +5222,10 @@
         <v>4200</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -4788,10 +5233,10 @@
         <v>4222</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -4799,10 +5244,10 @@
         <v>4301</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="42">
@@ -4810,10 +5255,10 @@
         <v>4412</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -4821,10 +5266,10 @@
         <v>4416</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -4832,10 +5277,10 @@
         <v>4423</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="42">
@@ -4843,10 +5288,10 @@
         <v>4508</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -4854,10 +5299,10 @@
         <v>4529</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -4865,10 +5310,10 @@
         <v>4530</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -4876,10 +5321,10 @@
         <v>4555</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -4887,10 +5332,10 @@
         <v>4575</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="42">
@@ -4898,10 +5343,10 @@
         <v>4580</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -4909,10 +5354,10 @@
         <v>4711</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="42">
@@ -4920,10 +5365,10 @@
         <v>4811</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -4931,10 +5376,10 @@
         <v>4853</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42">
@@ -4942,10 +5387,10 @@
         <v>5005</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -4953,10 +5398,10 @@
         <v>5079</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -4964,10 +5409,10 @@
         <v>5081</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
@@ -4975,10 +5420,10 @@
         <v>5112</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="42">
@@ -4986,10 +5431,10 @@
         <v>3368</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="42">
@@ -4997,10 +5442,10 @@
         <v>3514</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="42">
@@ -5008,10 +5453,10 @@
         <v>3515</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="42">
@@ -5019,10 +5464,10 @@
         <v>3517</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="42">
@@ -5030,10 +5475,10 @@
         <v>3920</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42">
@@ -5041,10 +5486,10 @@
         <v>6115</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="42">
@@ -5052,10 +5497,10 @@
         <v>7049</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="42">
@@ -5063,10 +5508,10 @@
         <v>8771</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="42">
@@ -5074,10 +5519,10 @@
         <v>8834</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="42">
@@ -5085,10 +5530,10 @@
         <v>9023</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42">
@@ -5096,10 +5541,10 @@
         <v>10373</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="42">
@@ -5107,10 +5552,10 @@
         <v>10441</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="42">
@@ -5118,10 +5563,10 @@
         <v>12187</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235" spans="1:6">

--- a/satd_issue_dataset_Ruby_tsuji.xlsx
+++ b/satd_issue_dataset_Ruby_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CBDE18-10DE-634F-92B8-4E08E2508475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED12A07-2F1A-C048-A306-7C050A0FDC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="-21100" windowWidth="28800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="437">
   <si>
     <t>Issue</t>
   </si>
@@ -1521,6 +1521,283 @@
   <si>
     <t>[Content]新しいコントローラーで「汎用」ミックスインを使用する
 [Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI のフォローアップ: ネットワーク プロバイダーを使用したルーターのプロビジョニング
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サーバー グループとドメインのフォント アイコンを置き換える
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]@cat_tree を変換して TreeBuilder を使用する
+[Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ネストされたルート
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Angular:$http success/errorへのすべての参照を削除して、$http.then()
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI リポジトリの分割
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]towhat のすべてのインスタンスを削除します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Automate UI のインポート/エクスポートは、rake のインポート/エクスポートとは異なるコード パスを使用します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「HACK」MissingFactoryHelper を削除する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の関数の使用をやめる: MiqServer#get_config
+[Class]非推奨の関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>この辺の判断が曖昧</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ハンダンガアイマイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ミドルウェア/hawkular コードを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]zanata のものを transifex に置き換える
+[Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rubyzip &gt; 2.0.0 に更新
+[Class]ツールの更新</t>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]仕様ファイルが欠落しているMiqRequestサブクラスのテストを作成します
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]従来の更新を削除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]refresh_new_target を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostgreSQL イントロスペクションをサポートするコードを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VM には一時停止とサスペンドの両方の操作があります
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サポートされている外部認証オプションから MiqLdap と LDAP を完全に削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コアからデータベース バックアップを削除します
+[Class]不要なデータの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AvailabilityMixin から SupportsFeatureMixin への完全な移行
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フレーバー属性の cpus と cpu_cores が紛らわしい
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MiqSet を RelationshipMixin の使用から has_many の使用に変換する
+[Class]ツールの置き換え，コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コックピットコンソールのサポートを削除
+[Class]サポートの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v2v プラグインを削除する
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Graphql プラグインを削除する
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]etc_group は独自のバージョンの FilterTable を実装します
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Post-InSpec 3.0 プラグイン システムの機能
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]plugins.json ファイルのクラスを作成します
+[Class]クラスの作成</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サンプル プロファイルをテスト フィクスチャとして使用するのをやめる
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI での Ruby バージョンの不一致
+[Class]テストの修正</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンプライアンス/A2 統合のテスト サポートが不十分
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]test/helper.rb をリファクタリングする必要があります
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]URL fetcher をクリーンアップして、繰り返される URI 解析/文字列化を減らします
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Inspec::UI を一貫して使用する
+[Class]UIの改善，ツールの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UIを作成するためのツールの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]filesystem: 内部を改善し、統合テストを追加します
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]inspec-habitat: 機能テストを追加します
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]入力: レジストリへの入力アクセスを統合し、値の投票を使用します
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Web サイトとドキュメントの改善 Rake タスク
+[Class]ドキュメントの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリング CLI オプションとコマンドのセットアップ
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プラグイン インストーラーの単体テストで順序の依存関係をテストする
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タイトルのつけ方もわかりません。ある種の偽陽性？
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストがプロジェクト ルートにプロファイルを作成しています
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト出力は気が散り、問題が発生しやすい
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]割り当てられているが未使用の変数
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]循環依存
+[Class]依存関係の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト出力での aws の非推奨
+[Class]非推奨への対応</t>
+    <rPh sb="33" eb="36">
+      <t xml:space="preserve">ヒスイショウヘノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]apt リソースの非推奨 =~
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト中にプラグインがインストールされる
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]物事には名前が必要
+[Class]クラスの追加</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2491,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4645,15 +4922,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="42">
+    <row r="151" spans="1:6" ht="63">
       <c r="A151">
         <v>12085</v>
       </c>
       <c r="B151" t="s">
         <v>150</v>
       </c>
+      <c r="C151" t="s">
+        <v>239</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -4663,8 +4943,11 @@
       <c r="B152" t="s">
         <v>151</v>
       </c>
+      <c r="C152" t="s">
+        <v>250</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -4674,8 +4957,11 @@
       <c r="B153" t="s">
         <v>152</v>
       </c>
+      <c r="C153" t="s">
+        <v>242</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>237</v>
+        <v>386</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -4685,8 +4971,14 @@
       <c r="B154" t="s">
         <v>153</v>
       </c>
+      <c r="C154" t="s">
+        <v>250</v>
+      </c>
+      <c r="D154" t="s">
+        <v>239</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>237</v>
+        <v>387</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -4696,8 +4988,11 @@
       <c r="B155" t="s">
         <v>154</v>
       </c>
+      <c r="C155" t="s">
+        <v>242</v>
+      </c>
       <c r="F155" s="2" t="s">
-        <v>237</v>
+        <v>388</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -4707,8 +5002,11 @@
       <c r="B156" t="s">
         <v>155</v>
       </c>
+      <c r="C156" t="s">
+        <v>250</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>237</v>
+        <v>389</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -4718,19 +5016,25 @@
       <c r="B157" t="s">
         <v>156</v>
       </c>
+      <c r="C157" t="s">
+        <v>239</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="42">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="63">
       <c r="A158">
         <v>18455</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
+      <c r="C158" t="s">
+        <v>239</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>237</v>
+        <v>391</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -4740,8 +5044,11 @@
       <c r="B159" t="s">
         <v>158</v>
       </c>
+      <c r="C159" t="s">
+        <v>239</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>237</v>
+        <v>392</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -4751,8 +5058,17 @@
       <c r="B160" t="s">
         <v>159</v>
       </c>
+      <c r="C160" t="s">
+        <v>242</v>
+      </c>
+      <c r="D160" t="s">
+        <v>239</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>394</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>237</v>
+        <v>393</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -4762,8 +5078,11 @@
       <c r="B161" t="s">
         <v>160</v>
       </c>
+      <c r="C161" t="s">
+        <v>239</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>237</v>
+        <v>395</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -4773,8 +5092,11 @@
       <c r="B162" t="s">
         <v>161</v>
       </c>
+      <c r="C162" t="s">
+        <v>242</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>237</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -4784,8 +5106,11 @@
       <c r="B163" t="s">
         <v>162</v>
       </c>
+      <c r="C163" t="s">
+        <v>242</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>237</v>
+        <v>397</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -4795,8 +5120,11 @@
       <c r="B164" t="s">
         <v>163</v>
       </c>
+      <c r="C164" t="s">
+        <v>258</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>237</v>
+        <v>398</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -4806,8 +5134,11 @@
       <c r="B165" t="s">
         <v>164</v>
       </c>
+      <c r="C165" t="s">
+        <v>239</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>237</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -4817,8 +5148,11 @@
       <c r="B166" t="s">
         <v>165</v>
       </c>
+      <c r="C166" t="s">
+        <v>239</v>
+      </c>
       <c r="F166" s="2" t="s">
-        <v>237</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -4828,8 +5162,11 @@
       <c r="B167" t="s">
         <v>166</v>
       </c>
+      <c r="C167" t="s">
+        <v>239</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -4839,19 +5176,25 @@
       <c r="B168" t="s">
         <v>167</v>
       </c>
+      <c r="C168" t="s">
+        <v>239</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="42">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="63">
       <c r="A169">
         <v>21078</v>
       </c>
       <c r="B169" t="s">
         <v>168</v>
       </c>
+      <c r="C169" t="s">
+        <v>239</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>237</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -4861,8 +5204,11 @@
       <c r="B170" t="s">
         <v>169</v>
       </c>
+      <c r="C170" t="s">
+        <v>239</v>
+      </c>
       <c r="F170" s="2" t="s">
-        <v>237</v>
+        <v>404</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -4872,8 +5218,11 @@
       <c r="B171" t="s">
         <v>170</v>
       </c>
+      <c r="C171" t="s">
+        <v>242</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>237</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -4883,8 +5232,11 @@
       <c r="B172" t="s">
         <v>171</v>
       </c>
+      <c r="C172" t="s">
+        <v>239</v>
+      </c>
       <c r="F172" s="2" t="s">
-        <v>237</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -4894,8 +5246,14 @@
       <c r="B173" t="s">
         <v>172</v>
       </c>
+      <c r="C173" t="s">
+        <v>242</v>
+      </c>
+      <c r="D173" t="s">
+        <v>239</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -4905,8 +5263,14 @@
       <c r="B174" t="s">
         <v>173</v>
       </c>
+      <c r="C174" t="s">
+        <v>242</v>
+      </c>
+      <c r="D174" t="s">
+        <v>239</v>
+      </c>
       <c r="F174" s="2" t="s">
-        <v>237</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -4916,8 +5280,11 @@
       <c r="B175" t="s">
         <v>174</v>
       </c>
+      <c r="C175" t="s">
+        <v>239</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>237</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -4927,8 +5294,11 @@
       <c r="B176" t="s">
         <v>175</v>
       </c>
+      <c r="C176" t="s">
+        <v>239</v>
+      </c>
       <c r="F176" s="2" t="s">
-        <v>237</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -4938,8 +5308,11 @@
       <c r="B177" t="s">
         <v>176</v>
       </c>
+      <c r="C177" t="s">
+        <v>239</v>
+      </c>
       <c r="F177" s="2" t="s">
-        <v>237</v>
+        <v>411</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -4949,8 +5322,11 @@
       <c r="B178" t="s">
         <v>177</v>
       </c>
+      <c r="C178" t="s">
+        <v>239</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -4960,8 +5336,11 @@
       <c r="B179" t="s">
         <v>178</v>
       </c>
+      <c r="C179" t="s">
+        <v>239</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>237</v>
+        <v>413</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -4971,8 +5350,11 @@
       <c r="B180" t="s">
         <v>179</v>
       </c>
+      <c r="C180" t="s">
+        <v>258</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>237</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -4982,8 +5364,11 @@
       <c r="B181" t="s">
         <v>180</v>
       </c>
+      <c r="C181" t="s">
+        <v>258</v>
+      </c>
       <c r="F181" s="2" t="s">
-        <v>237</v>
+        <v>415</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -4993,8 +5378,11 @@
       <c r="B182" t="s">
         <v>181</v>
       </c>
+      <c r="C182" t="s">
+        <v>258</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>237</v>
+        <v>416</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -5004,19 +5392,25 @@
       <c r="B183" t="s">
         <v>182</v>
       </c>
+      <c r="C183" t="s">
+        <v>258</v>
+      </c>
       <c r="F183" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="42">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="63">
       <c r="A184">
         <v>3668</v>
       </c>
       <c r="B184" t="s">
         <v>183</v>
       </c>
+      <c r="C184" t="s">
+        <v>239</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>237</v>
+        <v>418</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -5026,8 +5420,17 @@
       <c r="B185" t="s">
         <v>184</v>
       </c>
+      <c r="C185" t="s">
+        <v>250</v>
+      </c>
+      <c r="D185" t="s">
+        <v>242</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="F185" s="2" t="s">
-        <v>237</v>
+        <v>419</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -5037,8 +5440,11 @@
       <c r="B186" t="s">
         <v>185</v>
       </c>
+      <c r="C186" t="s">
+        <v>258</v>
+      </c>
       <c r="F186" s="2" t="s">
-        <v>237</v>
+        <v>421</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -5048,8 +5454,11 @@
       <c r="B187" t="s">
         <v>186</v>
       </c>
+      <c r="C187" t="s">
+        <v>258</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>237</v>
+        <v>422</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -5059,8 +5468,11 @@
       <c r="B188" t="s">
         <v>187</v>
       </c>
+      <c r="C188" t="s">
+        <v>239</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>237</v>
+        <v>423</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -5070,8 +5482,11 @@
       <c r="B189" t="s">
         <v>188</v>
       </c>
+      <c r="C189" t="s">
+        <v>425</v>
+      </c>
       <c r="F189" s="2" t="s">
-        <v>237</v>
+        <v>424</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -5081,8 +5496,11 @@
       <c r="B190" t="s">
         <v>189</v>
       </c>
+      <c r="C190" t="s">
+        <v>239</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>237</v>
+        <v>426</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -5092,8 +5510,11 @@
       <c r="B191" t="s">
         <v>190</v>
       </c>
+      <c r="C191" t="s">
+        <v>258</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>237</v>
+        <v>427</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -5103,8 +5524,11 @@
       <c r="B192" t="s">
         <v>191</v>
       </c>
+      <c r="C192" t="s">
+        <v>258</v>
+      </c>
       <c r="F192" s="2" t="s">
-        <v>237</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -5114,8 +5538,11 @@
       <c r="B193" t="s">
         <v>192</v>
       </c>
+      <c r="C193" t="s">
+        <v>258</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>237</v>
+        <v>429</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -5125,8 +5552,11 @@
       <c r="B194" t="s">
         <v>193</v>
       </c>
+      <c r="C194" t="s">
+        <v>258</v>
+      </c>
       <c r="F194" s="2" t="s">
-        <v>237</v>
+        <v>430</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -5136,8 +5566,11 @@
       <c r="B195" t="s">
         <v>194</v>
       </c>
+      <c r="C195" t="s">
+        <v>258</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>237</v>
+        <v>431</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -5147,8 +5580,11 @@
       <c r="B196" t="s">
         <v>195</v>
       </c>
+      <c r="C196" t="s">
+        <v>239</v>
+      </c>
       <c r="F196" s="2" t="s">
-        <v>237</v>
+        <v>432</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -5158,8 +5594,11 @@
       <c r="B197" t="s">
         <v>196</v>
       </c>
+      <c r="C197" t="s">
+        <v>242</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>237</v>
+        <v>433</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -5169,8 +5608,11 @@
       <c r="B198" t="s">
         <v>197</v>
       </c>
+      <c r="C198" t="s">
+        <v>242</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>237</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -5180,8 +5622,11 @@
       <c r="B199" t="s">
         <v>198</v>
       </c>
+      <c r="C199" t="s">
+        <v>258</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>237</v>
+        <v>435</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -5191,8 +5636,11 @@
       <c r="B200" t="s">
         <v>199</v>
       </c>
+      <c r="C200" t="s">
+        <v>239</v>
+      </c>
       <c r="F200" s="2" t="s">
-        <v>237</v>
+        <v>436</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
